--- a/2. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
+++ b/2. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian tanpa random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502CF890-C99B-4047-83CF-4F776B7728DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F363693-2189-490A-BAC6-DA03FB5DE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Awal" sheetId="1" r:id="rId1"/>
@@ -855,16 +855,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -875,10 +875,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A5:T11"/>
+  <dimension ref="A5:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1153,49 +1153,138 @@
       <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="18">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="C10" s="18">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>5.6899999999999999E-2</v>
+      </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1.5E-3</v>
+      </c>
       <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="L10" s="18">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="M10" s="18">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="N10" s="18">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="O10" s="18">
+        <v>5.8599999999999999E-2</v>
+      </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="Q10" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R10" s="18">
+        <v>1.4E-3</v>
+      </c>
+      <c r="S10" s="18">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T10" s="18">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="20">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="C11" s="20">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5.8099999999999999E-2</v>
+      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="G11" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I11" s="20">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J11" s="20">
+        <v>1.5E-3</v>
+      </c>
       <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="L11" s="20">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="M11" s="20">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="N11" s="20">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="O11" s="20">
+        <v>5.7599999999999998E-2</v>
+      </c>
       <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
+      <c r="Q11" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R11" s="20">
+        <v>1.4E-3</v>
+      </c>
+      <c r="S11" s="20">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T11" s="20">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1216,8 +1305,8 @@
   </sheetPr>
   <dimension ref="A5:T16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1491,52 +1580,118 @@
       <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="18">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="C10" s="18">
+        <v>247.02860000000001</v>
+      </c>
+      <c r="D10" s="18">
+        <v>691.73500000000001</v>
+      </c>
+      <c r="E10" s="18">
+        <v>176.56</v>
+      </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H10" s="18">
+        <v>10.1004</v>
+      </c>
+      <c r="I10" s="18">
+        <v>13.491</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.45619999999999999</v>
+      </c>
       <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="L10" s="18">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="M10" s="18">
+        <v>247.82640000000001</v>
+      </c>
+      <c r="N10" s="18">
+        <v>706.3519</v>
+      </c>
+      <c r="O10" s="18">
+        <v>111.09</v>
+      </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="Q10" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R10" s="18">
+        <v>10.452199999999999</v>
+      </c>
+      <c r="S10" s="18">
+        <v>13.8117</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0.46879999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="20">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="C11" s="20">
+        <v>258.41699999999997</v>
+      </c>
+      <c r="D11" s="20">
+        <v>686.47190000000001</v>
+      </c>
+      <c r="E11" s="20">
+        <v>284.08999999999997</v>
+      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="G11" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H11" s="20">
+        <v>9.9205000000000005</v>
+      </c>
+      <c r="I11" s="20">
+        <v>13.160600000000001</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0.4385</v>
+      </c>
       <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="L11" s="20">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="M11" s="20">
+        <v>241.61930000000001</v>
+      </c>
+      <c r="N11" s="20">
+        <v>701.63789999999995</v>
+      </c>
+      <c r="O11" s="20">
+        <v>137.95999999999901</v>
+      </c>
       <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
+      <c r="Q11" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R11" s="20">
+        <v>10.4445</v>
+      </c>
+      <c r="S11" s="20">
+        <v>13.821199999999999</v>
+      </c>
+      <c r="T11" s="20">
+        <v>0.46700000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="23">
+        <v>6</v>
+      </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -1558,7 +1713,9 @@
       <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="23">
+        <v>7</v>
+      </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -1580,7 +1737,9 @@
       <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="23">
+        <v>8</v>
+      </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1602,7 +1761,9 @@
       <c r="T14" s="18"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="23">
+        <v>9</v>
+      </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1624,7 +1785,9 @@
       <c r="T15" s="18"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="23">
+        <v>10</v>
+      </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>

--- a/2. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
+++ b/2. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian tanpa random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F363693-2189-490A-BAC6-DA03FB5DE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D82D92D-EA4B-4229-9542-FFE8429FCC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Awal" sheetId="1" r:id="rId1"/>
@@ -593,16 +593,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
@@ -620,7 +620,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
         <v>12</v>
@@ -636,7 +636,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -664,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -694,7 +694,7 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -728,10 +728,10 @@
         <v>3.8508000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="28" t="s">
         <v>12</v>
@@ -765,7 +765,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
         <v>5</v>
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -855,16 +855,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -878,24 +878,24 @@
   <dimension ref="A5:T16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A16"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="8.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="15" t="s">
         <v>5</v>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>2</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>3</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>4</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>5</v>
       </c>
@@ -1261,27 +1261,75 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="22">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="C12" s="22">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="D12" s="22">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="E12" s="22">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I12" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0.6462</v>
+      </c>
+      <c r="M12" s="22">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="N12" s="22">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="O12" s="22">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R12" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="S12" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T12" s="24">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>10</v>
       </c>
@@ -1306,23 +1354,23 @@
   <dimension ref="A5:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A16"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="8.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1402,7 @@
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="15" t="s">
         <v>5</v>
@@ -1408,7 +1456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1464,7 +1512,7 @@
         <v>0.4652</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>2</v>
       </c>
@@ -1520,7 +1568,7 @@
         <v>0.47439999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>3</v>
       </c>
@@ -1576,7 +1624,7 @@
         <v>0.46410000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>4</v>
       </c>
@@ -1632,7 +1680,7 @@
         <v>0.46879999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>5</v>
       </c>
@@ -1688,31 +1736,63 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>6</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="18">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="C12" s="18">
+        <v>246.24590000000001</v>
+      </c>
+      <c r="D12" s="18">
+        <v>691.70759999999996</v>
+      </c>
+      <c r="E12" s="18">
+        <v>139.98999999999899</v>
+      </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="G12" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H12" s="18">
+        <v>10.3161</v>
+      </c>
+      <c r="I12" s="18">
+        <v>13.5657</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0.46460000000000001</v>
+      </c>
       <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="L12" s="18">
+        <v>0.6462</v>
+      </c>
+      <c r="M12" s="18">
+        <v>242.9796</v>
+      </c>
+      <c r="N12" s="18">
+        <v>709.66179999999997</v>
+      </c>
+      <c r="O12" s="18">
+        <v>98.429999999999893</v>
+      </c>
       <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q12" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R12" s="18">
+        <v>10.1067</v>
+      </c>
+      <c r="S12" s="18">
+        <v>13.3826</v>
+      </c>
+      <c r="T12" s="18">
+        <v>0.4551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>7</v>
       </c>
@@ -1736,7 +1816,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>8</v>
       </c>
@@ -1760,7 +1840,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>9</v>
       </c>
@@ -1784,7 +1864,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>10</v>
       </c>

--- a/2. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
+++ b/2. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian tanpa random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D82D92D-EA4B-4229-9542-FFE8429FCC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C8245-0671-434B-B3B0-47CFCF290667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -187,11 +187,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -280,6 +289,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,16 +876,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -878,7 +899,7 @@
   <dimension ref="A5:T16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1318,20 +1339,212 @@
       <c r="A13" s="23">
         <v>7</v>
       </c>
+      <c r="B13" s="22">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="C13" s="22">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="D13" s="22">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="E13" s="22">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I13" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J13" s="22">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="M13" s="22">
+        <v>3.56E-2</v>
+      </c>
+      <c r="N13" s="22">
+        <v>9.69E-2</v>
+      </c>
+      <c r="O13" s="22">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R13" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="S13" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T13" s="24">
+        <v>1.5E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>8</v>
       </c>
+      <c r="B14" s="22">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="C14" s="22">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="D14" s="22">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="E14" s="22">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I14" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J14" s="22">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0.6482</v>
+      </c>
+      <c r="M14" s="22">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="N14" s="22">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="O14" s="22">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R14" s="22">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S14" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T14" s="24">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>9</v>
       </c>
+      <c r="B15" s="22">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="C15" s="22">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="D15" s="22">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="E15" s="22">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I15" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J15" s="22">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0.6452</v>
+      </c>
+      <c r="M15" s="22">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="N15" s="22">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="O15" s="22">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R15" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="S15" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T15" s="24">
+        <v>1.5E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>10</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="C16" s="22">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="D16" s="22">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="E16" s="22">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H16" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I16" s="22">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J16" s="22">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="M16" s="22">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="N16" s="22">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="O16" s="22">
+        <v>5.74E-2</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R16" s="22">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S16" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T16" s="24">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1354,7 +1567,7 @@
   <dimension ref="A5:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1737,156 +1950,284 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="32">
         <v>6</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="33">
         <v>0.64200000000000002</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="33">
         <v>246.24590000000001</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="33">
         <v>691.70759999999996</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="33">
         <v>139.98999999999899</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H12" s="33">
         <v>10.3161</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="33">
         <v>13.5657</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="33">
         <v>0.46460000000000001</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18">
+      <c r="K12" s="33"/>
+      <c r="L12" s="33">
         <v>0.6462</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="33">
         <v>242.9796</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="33">
         <v>709.66179999999997</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="33">
         <v>98.429999999999893</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="R12" s="18">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R12" s="33">
         <v>10.1067</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="33">
         <v>13.3826</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="33">
         <v>0.4551</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="34">
         <v>7</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="18">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="C13" s="18">
+        <v>250.13210000000001</v>
+      </c>
+      <c r="D13" s="18">
+        <v>692.11149999999998</v>
+      </c>
+      <c r="E13" s="18">
+        <v>206.80999999999901</v>
+      </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="G13" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H13" s="18">
+        <v>10.273899999999999</v>
+      </c>
+      <c r="I13" s="18">
+        <v>13.583</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0.44990000000000002</v>
+      </c>
       <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="L13" s="18">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="M13" s="18">
+        <v>256.66410000000002</v>
+      </c>
+      <c r="N13" s="18">
+        <v>699.44690000000003</v>
+      </c>
+      <c r="O13" s="18">
+        <v>287.67</v>
+      </c>
       <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
+      <c r="Q13" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R13" s="18">
+        <v>10.268000000000001</v>
+      </c>
+      <c r="S13" s="18">
+        <v>13.6936</v>
+      </c>
+      <c r="T13" s="18">
+        <v>0.45490000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="34">
         <v>8</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="18">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="C14" s="18">
+        <v>248.6661</v>
+      </c>
+      <c r="D14" s="18">
+        <v>695.02089999999998</v>
+      </c>
+      <c r="E14" s="18">
+        <v>184.05</v>
+      </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="G14" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H14" s="18">
+        <v>10.224</v>
+      </c>
+      <c r="I14" s="18">
+        <v>13.590199999999999</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0.44950000000000001</v>
+      </c>
       <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="L14" s="18">
+        <v>0.6482</v>
+      </c>
+      <c r="M14" s="18">
+        <v>245.88730000000001</v>
+      </c>
+      <c r="N14" s="18">
+        <v>701.89509999999996</v>
+      </c>
+      <c r="O14" s="18">
+        <v>104.61</v>
+      </c>
       <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+      <c r="Q14" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R14" s="18">
+        <v>10.535600000000001</v>
+      </c>
+      <c r="S14" s="18">
+        <v>13.932</v>
+      </c>
+      <c r="T14" s="18">
+        <v>0.4733</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="A15" s="34">
         <v>9</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="18">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="C15" s="18">
+        <v>252.99959999999999</v>
+      </c>
+      <c r="D15" s="18">
+        <v>689.24509999999998</v>
+      </c>
+      <c r="E15" s="18">
+        <v>242.01</v>
+      </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="G15" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H15" s="18">
+        <v>10.1456</v>
+      </c>
+      <c r="I15" s="18">
+        <v>13.595800000000001</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0.45879999999999999</v>
+      </c>
       <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="L15" s="18">
+        <v>0.6452</v>
+      </c>
+      <c r="M15" s="18">
+        <v>241.09030000000001</v>
+      </c>
+      <c r="N15" s="18">
+        <v>705.38959999999997</v>
+      </c>
+      <c r="O15" s="18">
+        <v>109.07</v>
+      </c>
       <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
+      <c r="Q15" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R15" s="18">
+        <v>10.1934</v>
+      </c>
+      <c r="S15" s="18">
+        <v>13.7333</v>
+      </c>
+      <c r="T15" s="18">
+        <v>0.4612</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="35">
         <v>10</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
+      <c r="B16" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="C16" s="20">
+        <v>253.72579999999999</v>
+      </c>
+      <c r="D16" s="20">
+        <v>691.05719999999997</v>
+      </c>
+      <c r="E16" s="20">
+        <v>247.6</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H16" s="20">
+        <v>9.9992000000000001</v>
+      </c>
+      <c r="I16" s="20">
+        <v>13.3157</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="M16" s="20">
+        <v>243.15629999999999</v>
+      </c>
+      <c r="N16" s="20">
+        <v>696.36369999999999</v>
+      </c>
+      <c r="O16" s="20">
+        <v>160.4</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R16" s="20">
+        <v>10.545</v>
+      </c>
+      <c r="S16" s="20">
+        <v>14.0006</v>
+      </c>
+      <c r="T16" s="20">
+        <v>0.47260000000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/2. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
+++ b/2. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian tanpa random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C8245-0671-434B-B3B0-47CFCF290667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2C9F20-3E06-412A-9AA6-676866B1FF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Awal" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -270,6 +270,18 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -291,17 +303,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,41 +629,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -753,41 +758,41 @@
       <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
@@ -876,16 +881,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -898,8 +903,8 @@
   </sheetPr>
   <dimension ref="A5:T16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -917,39 +922,39 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
@@ -1495,55 +1500,58 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="28">
         <v>10</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="36">
         <v>0.64</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="36">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="36">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="36">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="G16" s="22">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="F16" s="37"/>
+      <c r="G16" s="36">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H16" s="36">
         <v>1.4E-3</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="36">
         <v>1.8E-3</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="36">
         <v>1.5E-3</v>
       </c>
-      <c r="L16" s="22">
+      <c r="K16" s="37"/>
+      <c r="L16" s="36">
         <v>0.64839999999999998</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="36">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="36">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="36">
         <v>5.74E-2</v>
       </c>
-      <c r="Q16" s="22">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="R16" s="22">
+      <c r="P16" s="37"/>
+      <c r="Q16" s="36">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R16" s="36">
         <v>1.5E-3</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="36">
         <v>1.9E-3</v>
       </c>
-      <c r="T16" s="24">
+      <c r="T16" s="38">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -1566,7 +1574,7 @@
   </sheetPr>
   <dimension ref="A5:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1584,39 +1592,39 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
@@ -1950,63 +1958,63 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="32">
+      <c r="A12" s="25">
         <v>6</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="26">
         <v>0.64200000000000002</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="26">
         <v>246.24590000000001</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="26">
         <v>691.70759999999996</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="26">
         <v>139.98999999999899</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H12" s="33">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H12" s="26">
         <v>10.3161</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="26">
         <v>13.5657</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="26">
         <v>0.46460000000000001</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33">
+      <c r="K12" s="26"/>
+      <c r="L12" s="26">
         <v>0.6462</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="26">
         <v>242.9796</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="26">
         <v>709.66179999999997</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="26">
         <v>98.429999999999893</v>
       </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="R12" s="33">
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R12" s="26">
         <v>10.1067</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="26">
         <v>13.3826</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="26">
         <v>0.4551</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="27">
         <v>7</v>
       </c>
       <c r="B13" s="18">
@@ -2062,7 +2070,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
       <c r="B14" s="18">
@@ -2118,7 +2126,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+      <c r="A15" s="27">
         <v>9</v>
       </c>
       <c r="B15" s="18">
@@ -2174,7 +2182,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="A16" s="28">
         <v>10</v>
       </c>
       <c r="B16" s="20">
